--- a/Teste_1_Jogador_Completo/Sumula_Novo_Padrao.xlsx
+++ b/Teste_1_Jogador_Completo/Sumula_Novo_Padrao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Roberto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Roberto\Documents\Baygon Geral\Codigo\associacao-futebol\Teste_1_Jogador_Completo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DECE78-700C-46D5-A7BC-1DC87261E018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA754D7-C693-4988-ABDE-5CE13E713912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,8 +22,6 @@
     <sheet name="Defesas" sheetId="9" r:id="rId7"/>
     <sheet name="Ouros" sheetId="6" r:id="rId8"/>
     <sheet name="Contra" sheetId="7" r:id="rId9"/>
-    <sheet name="Colaboracao" sheetId="8" r:id="rId10"/>
-    <sheet name="Copa" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="68">
   <si>
     <t>Boleiro</t>
   </si>
@@ -221,6 +219,24 @@
   </si>
   <si>
     <t>Defesas de Penalti</t>
+  </si>
+  <si>
+    <t>Atacante</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Zagueiro</t>
+  </si>
+  <si>
+    <t>Goleiro</t>
+  </si>
+  <si>
+    <t>Meia</t>
+  </si>
+  <si>
+    <t>Baba - Geral</t>
   </si>
 </sst>
 </file>
@@ -262,12 +278,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CE5C4D-E381-4C77-8E58-F0981655C7F9}">
-  <dimension ref="A2:C6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,6 +578,11 @@
     <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
@@ -624,82 +644,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A69FDC-6EF2-424D-8AAD-931022E6FFFC}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF202CB4-8283-47F3-9B3C-9799944001BB}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4B109D-249F-4716-BB18-9AAFF8024B22}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF202CB4-8283-47F3-9B3C-9799944001BB}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,6 +667,110 @@
         <v>60</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -724,13 +778,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,10 +794,10 @@
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -754,15 +808,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -800,16 +847,13 @@
         <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -853,11 +897,8 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -883,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I39" si="0" xml:space="preserve"> SUM(1,D4,E4,(F4*3),H4)</f>
+        <f t="shared" ref="I4:I37" si="0" xml:space="preserve"> SUM(1,D4,E4,(F4*3),H4)</f>
         <v>22</v>
       </c>
       <c r="J4">
@@ -901,11 +942,8 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -944,16 +982,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -997,11 +1032,8 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1045,11 +1077,8 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1093,11 +1122,8 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1141,11 +1167,8 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1189,11 +1212,8 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1237,11 +1257,8 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1285,11 +1302,8 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1333,11 +1347,8 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1381,11 +1392,8 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1429,11 +1437,8 @@
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1477,11 +1482,8 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1525,11 +1527,8 @@
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1573,11 +1572,8 @@
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1616,16 +1612,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1667,13 +1660,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1717,11 +1707,8 @@
       <c r="N21">
         <v>0</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1765,11 +1752,8 @@
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1813,11 +1797,8 @@
       <c r="N23">
         <v>0</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1861,11 +1842,8 @@
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1904,16 +1882,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1957,11 +1932,8 @@
       <c r="N26">
         <v>0</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2005,11 +1977,8 @@
       <c r="N27">
         <v>0</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2048,16 +2017,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2101,11 +2067,8 @@
       <c r="N29">
         <v>0</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2144,16 +2107,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2197,11 +2157,8 @@
       <c r="N31">
         <v>0</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2240,16 +2197,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2293,11 +2247,8 @@
       <c r="N33">
         <v>0</v>
       </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2336,16 +2287,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -2384,16 +2332,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2435,13 +2380,10 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2485,11 +2427,8 @@
       <c r="N37">
         <v>0</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2533,11 +2472,8 @@
       <c r="N38">
         <v>0</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2576,16 +2512,13 @@
         <v>20</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2629,11 +2562,8 @@
       <c r="N40">
         <v>0</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -2677,11 +2607,8 @@
       <c r="N41">
         <v>0</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2725,11 +2652,8 @@
       <c r="N42">
         <v>0</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -2773,11 +2697,8 @@
       <c r="N43">
         <v>0</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2821,11 +2742,8 @@
       <c r="N44">
         <v>0</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2853,6 +2771,21 @@
       <c r="I45">
         <f xml:space="preserve"> SUM(1,D45,E45,(F45*3),H45)</f>
         <v>3</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +2802,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,13 +2811,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3050,7 +2979,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3105,6 +3034,9 @@
       </c>
       <c r="B6" t="s">
         <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3121,7 +3053,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,7 +3251,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,7 +3285,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Teste_1_Jogador_Completo/Sumula_Novo_Padrao.xlsx
+++ b/Teste_1_Jogador_Completo/Sumula_Novo_Padrao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Roberto\Documents\Baygon Geral\Codigo\associacao-futebol\Teste_1_Jogador_Completo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA754D7-C693-4988-ABDE-5CE13E713912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8DA002-B35E-48E8-B080-BE1F30EF55AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,10 @@
     <sheet name="Ouros" sheetId="6" r:id="rId8"/>
     <sheet name="Contra" sheetId="7" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boleiros!$A$2:$B$2</definedName>
+    <definedName name="BoleirosRegistrados" comment="Todo boleiro deve ser registrado aqui para poder ser inserido nas outras abas">Boleiros!$A$3:$A$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="68">
   <si>
     <t>Boleiro</t>
   </si>
@@ -566,7 +570,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +653,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +673,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -677,39 +681,39 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -717,15 +721,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -733,7 +737,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -749,26 +753,26 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -781,10 +785,10 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,8 +861,9 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3" t="str">
+        <f>BoleirosRegistrados</f>
+        <v>Anderson</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -2793,6 +2798,18 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B32" xr:uid="{3DD5FD61-9509-4B3D-AB14-EC7C2E4743F0}">
+      <formula1>BoleirosRegistrados</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="D46" xr:uid="{E90E8BDC-2ADA-455F-B467-A547CABD99FD}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Boleiro Inválido" error="É necessário registrar o boleiro na aba &quot;Boleiros&quot;" sqref="B33:B45 B47:B1048576" xr:uid="{01FBB186-CE36-4D02-9B13-CF4FA88B6601}">
+      <formula1>BoleirosRegistrados</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Boleiro Inválido" error="Caso seja um novo boleiro, necessário registrá-lo na aba &quot;Boleiros&quot;" sqref="B46" xr:uid="{0502E18F-6C34-47DD-96A9-F4161414C441}">
+      <formula1>BoleirosRegistrados</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3052,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E964FD9E-4A6A-4EAB-8156-272A1DF29334}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,6 +3259,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Boleiro Inválido" error="Caso seja um novo boleiro, necessário registrá-lo na aba &quot;Boleiros&quot;" sqref="C3:D1048576" xr:uid="{19159622-F538-4F4C-99F1-822D56EB37BB}">
+      <formula1>BoleirosRegistrados</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -3251,7 +3273,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,6 +3298,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Boleiro Inválido" error="Caso seja um novo boleiro, necessário registrá-lo na aba &quot;Boleiros&quot;" sqref="B3:B1048576" xr:uid="{DB21C9C4-68E5-4E24-9F3D-4FABECD9A3FD}">
+      <formula1>BoleirosRegistrados</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -3285,7 +3312,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B3" sqref="B3:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,6 +3334,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Boleiro Inválido" error="Caso seja um novo boleiro, necessário registrá-lo na aba &quot;Boleiros&quot;" sqref="B3:B1048576" xr:uid="{5BC51B03-AC10-4445-B4CC-D6E5DF068C60}">
+      <formula1>BoleirosRegistrados</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -3316,7 +3348,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,6 +3373,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Boleiro Inválido" error="Caso seja um novo boleiro, necessário registrá-lo na aba &quot;Boleiros&quot;" sqref="B3:B1048576" xr:uid="{8A2FB513-E0C8-4FD6-9546-F84A1D316E48}">
+      <formula1>BoleirosRegistrados</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Teste_1_Jogador_Completo/Sumula_Novo_Padrao.xlsx
+++ b/Teste_1_Jogador_Completo/Sumula_Novo_Padrao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Roberto\Documents\Baygon Geral\Codigo\associacao-futebol\Teste_1_Jogador_Completo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8DA002-B35E-48E8-B080-BE1F30EF55AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3546D7-9ABF-4781-83E5-03C2A7BDF25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boleiros!$A$2:$B$2</definedName>
-    <definedName name="BoleirosRegistrados" comment="Todo boleiro deve ser registrado aqui para poder ser inserido nas outras abas">Boleiros!$A$3:$A$15</definedName>
+    <definedName name="BoleirosRegistrados" comment="Todo boleiro deve ser registrado aqui para poder ser inserido nas outras abas">OFFSET(Boleiros!$A$2, 0, 0, COUNTA(Boleiros!$A:$A)-1, 1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -570,7 +570,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +653,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,10 +785,10 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="str">
-        <f>BoleirosRegistrados</f>
+        <f ca="1">BoleirosRegistrados</f>
         <v>Anderson</v>
       </c>
       <c r="C3" t="s">
@@ -2798,15 +2798,9 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B32" xr:uid="{3DD5FD61-9509-4B3D-AB14-EC7C2E4743F0}">
-      <formula1>BoleirosRegistrados</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" sqref="D46" xr:uid="{E90E8BDC-2ADA-455F-B467-A547CABD99FD}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Boleiro Inválido" error="É necessário registrar o boleiro na aba &quot;Boleiros&quot;" sqref="B33:B45 B47:B1048576" xr:uid="{01FBB186-CE36-4D02-9B13-CF4FA88B6601}">
-      <formula1>BoleirosRegistrados</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Boleiro Inválido" error="Caso seja um novo boleiro, necessário registrá-lo na aba &quot;Boleiros&quot;" sqref="B46" xr:uid="{0502E18F-6C34-47DD-96A9-F4161414C441}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Boleiro Inválido" error="Caso seja um novo boleiro, necessário registrá-lo na aba &quot;Boleiros&quot;" sqref="B3:B1048576" xr:uid="{0502E18F-6C34-47DD-96A9-F4161414C441}">
       <formula1>BoleirosRegistrados</formula1>
     </dataValidation>
   </dataValidations>

--- a/Teste_1_Jogador_Completo/Sumula_Novo_Padrao.xlsx
+++ b/Teste_1_Jogador_Completo/Sumula_Novo_Padrao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Roberto\Documents\Baygon Geral\Codigo\associacao-futebol\Teste_1_Jogador_Completo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3546D7-9ABF-4781-83E5-03C2A7BDF25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C68C4FD-F7C1-48FF-BDF9-BE8ABDCD0382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="753" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baba" sheetId="3" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <sheet name="Times" sheetId="2" r:id="rId4"/>
     <sheet name="Pizza" sheetId="4" r:id="rId5"/>
     <sheet name="Premios" sheetId="5" r:id="rId6"/>
-    <sheet name="Defesas" sheetId="9" r:id="rId7"/>
+    <sheet name="DefesasPenaltis" sheetId="9" r:id="rId7"/>
     <sheet name="Ouros" sheetId="6" r:id="rId8"/>
     <sheet name="Contra" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Boleiros!$A$2:$B$2</definedName>
-    <definedName name="BoleirosRegistrados" comment="Todo boleiro deve ser registrado aqui para poder ser inserido nas outras abas">OFFSET(Boleiros!$A$2, 0, 0, COUNTA(Boleiros!$A:$A)-1, 1)</definedName>
+    <definedName name="BoleirosRegistrados" comment="Todo boleiro deve ser registrado aqui para poder ser inserido nas outras abas">OFFSET(Boleiros!$A$3, 0, 0, COUNTA(Boleiros!$A:$A)-2, 1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="67">
   <si>
     <t>Boleiro</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Matheus</t>
-  </si>
-  <si>
-    <t>T10B94</t>
   </si>
   <si>
     <t>Juan</t>
@@ -282,8 +279,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CE5C4D-E381-4C77-8E58-F0981655C7F9}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +588,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -636,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -653,2149 +657,1896 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>62</v>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>66</v>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>64</v>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>66</v>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>64</v>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>65</v>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>63</v>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
-        <v>65</v>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
-        <v>62</v>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="str">
-        <f ca="1">BoleirosRegistrados</f>
-        <v>Anderson</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3">
         <f xml:space="preserve"> SUM(1,D3,E3,(F3*3),H3)</f>
         <v>25</v>
       </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I37" si="0" xml:space="preserve"> SUM(1,D4,E4,(F4*3),H4)</f>
         <v>22</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>5</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <v>10</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
         <v>5</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <v>10</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
         <v>0</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22">
+      <c r="J22" s="1">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1">
         <v>10</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
         <v>1</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
         <v>1</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
         <v>5</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
         <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
         <v>1</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="J26" s="1">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-      <c r="H27">
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
         <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
         <v>10</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
         <v>1</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1">
         <v>1</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="J29" s="1">
+        <v>3</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
         <v>8</v>
       </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
         <v>1</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
         <v>1</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
         <v>1</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
         <v>10</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
         <v>3</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
         <v>5</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
         <v>3</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
         <v>7</v>
       </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
         <v>3</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="J35" s="1">
+        <v>3</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
         <v>3</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
         <v>3</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J37">
-        <v>3</v>
-      </c>
-      <c r="K37">
+      <c r="J37" s="1">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1">
         <v>10</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1">
         <v>3</v>
       </c>
       <c r="I38">
         <f t="shared" ref="I38" si="1" xml:space="preserve"> SUM(1,D38,E38,(F38*3),H38)</f>
         <v>12</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1">
         <v>6</v>
       </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1">
         <v>3</v>
       </c>
       <c r="I39">
         <f xml:space="preserve"> SUM(1,D39,E39,(F39*3),H39)</f>
         <v>20</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
         <v>20</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
         <v>3</v>
       </c>
       <c r="I40">
         <f xml:space="preserve"> SUM(1,D40,E40,(F40*3),H40)</f>
         <v>12</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
         <v>3</v>
       </c>
       <c r="I41">
         <f t="shared" ref="I41:I43" si="2" xml:space="preserve"> SUM(1,D41,E41,(F41*3),H41)</f>
         <v>11</v>
       </c>
-      <c r="J41">
-        <v>3</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="J41" s="1">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
         <v>3</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="K42">
+      <c r="J42" s="1">
+        <v>3</v>
+      </c>
+      <c r="K42" s="1">
         <v>10</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="H43">
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
         <v>3</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
         <v>2</v>
       </c>
       <c r="I44">
         <f xml:space="preserve"> SUM(1,D44,E44,(F44*3),H44)</f>
         <v>10</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
         <v>1</v>
       </c>
       <c r="I45">
         <f xml:space="preserve"> SUM(1,D45,E45,(F45*3),H45)</f>
         <v>3</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -2813,7 +2564,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,7 +2574,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,7 +2741,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,20 +2750,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E964FD9E-4A6A-4EAB-8156-272A1DF29334}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3074,7 +2825,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3082,13 +2833,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3096,7 +2847,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,7 +2855,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,7 +2863,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,7 +2871,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3128,7 +2879,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3136,7 +2887,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3144,7 +2895,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3152,7 +2903,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3160,7 +2911,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3168,7 +2919,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3176,7 +2927,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3184,7 +2935,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3192,7 +2943,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3200,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3208,7 +2959,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3216,7 +2967,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3224,7 +2975,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3232,7 +2983,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3240,7 +2991,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3248,7 +2999,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3264,10 +3015,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391AD7DB-755C-41AF-8C5D-D1D92739A7E2}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,7 +3028,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3288,7 +3039,29 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3303,10 +3076,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDFEACC-5525-4362-9245-7BA92D324E24}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3321,10 +3094,43 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3339,10 +3145,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17DAA9D-8BA1-4923-B7E9-8A6C9D596318}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3360,10 +3166,43 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
